--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2761070.580775658</v>
+        <v>-2763998.153093033</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>25.30371373606504</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31.2684229058644</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>5.774433940770336</v>
       </c>
       <c r="S2" t="n">
         <v>156.7476462617291</v>
       </c>
       <c r="T2" t="n">
-        <v>213.0542682979517</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>213.2445435269807</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>39.31950232617346</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>148.8857043306949</v>
       </c>
       <c r="T3" t="n">
         <v>195.2176514895044</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>213.2445435269807</v>
       </c>
       <c r="V3" t="n">
-        <v>213.2445435269807</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>213.2445435269807</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>56.9669816453458</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>213.2445435269807</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>56.79854803125502</v>
       </c>
       <c r="X4" t="n">
-        <v>56.79854803125502</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>25.67913628361556</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
-        <v>72.36698404190676</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>100.077255155791</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>191.2696694406322</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>110.6934725236134</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>79.63579206135118</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>126.4707381904092</v>
       </c>
       <c r="G8" t="n">
         <v>411.7423946893657</v>
@@ -1151,7 +1151,7 @@
         <v>303.0124411513565</v>
       </c>
       <c r="I8" t="n">
-        <v>73.21577277993185</v>
+        <v>73.21577277993208</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8887574440256</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>2.60479510163238</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0608254817749</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1215,22 +1215,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>67.71426306405046</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4385658107247</v>
+        <v>15.70979943742666</v>
       </c>
       <c r="H9" t="n">
-        <v>93.83762459538218</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.80949198731557</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>136.2995352363905</v>
+        <v>136.2995352363906</v>
       </c>
       <c r="T9" t="n">
         <v>192.4864379363366</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.4843408108823</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>186.7146475020535</v>
+        <v>196.1844205328129</v>
       </c>
       <c r="T10" t="n">
-        <v>221.1218422050395</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2319176898112</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>57.87376462438973</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428213</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1610,19 +1610,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>108.2950343703271</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>59.66990246485226</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>126.464366564012</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.5473326898977</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002298</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652459</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808206</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S25" t="n">
-        <v>156.741638509605</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V25" t="n">
-        <v>227.8529958317884</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W25" t="n">
         <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y25" t="n">
-        <v>194.3000058600552</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652576</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,7 +2965,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
         <v>56.9811888265258</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972048</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,13 +3673,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808158</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652547</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972048</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.64382904363765</v>
+        <v>42.61887028626455</v>
       </c>
       <c r="C2" t="n">
-        <v>48.64382904363765</v>
+        <v>42.61887028626455</v>
       </c>
       <c r="D2" t="n">
-        <v>48.64382904363765</v>
+        <v>17.05956348215845</v>
       </c>
       <c r="E2" t="n">
-        <v>48.64382904363765</v>
+        <v>17.05956348215845</v>
       </c>
       <c r="F2" t="n">
-        <v>48.64382904363765</v>
+        <v>17.05956348215845</v>
       </c>
       <c r="G2" t="n">
-        <v>48.64382904363765</v>
+        <v>17.05956348215845</v>
       </c>
       <c r="H2" t="n">
-        <v>48.64382904363765</v>
+        <v>17.05956348215845</v>
       </c>
       <c r="I2" t="n">
         <v>17.05956348215845</v>
@@ -4352,28 +4352,28 @@
         <v>852.9781741079227</v>
       </c>
       <c r="R2" t="n">
-        <v>852.9781741079227</v>
+        <v>847.1454125515889</v>
       </c>
       <c r="S2" t="n">
-        <v>694.6472182879943</v>
+        <v>688.8144567316606</v>
       </c>
       <c r="T2" t="n">
-        <v>479.4408866739017</v>
+        <v>688.8144567316606</v>
       </c>
       <c r="U2" t="n">
-        <v>479.4408866739017</v>
+        <v>688.8144567316606</v>
       </c>
       <c r="V2" t="n">
-        <v>264.0423578587697</v>
+        <v>473.4159279165286</v>
       </c>
       <c r="W2" t="n">
-        <v>264.0423578587697</v>
+        <v>473.4159279165286</v>
       </c>
       <c r="X2" t="n">
-        <v>264.0423578587697</v>
+        <v>258.0173991013966</v>
       </c>
       <c r="Y2" t="n">
-        <v>264.0423578587697</v>
+        <v>258.0173991013966</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.77623249849529</v>
+        <v>17.05956348215845</v>
       </c>
       <c r="C3" t="n">
-        <v>56.77623249849529</v>
+        <v>17.05956348215845</v>
       </c>
       <c r="D3" t="n">
-        <v>56.77623249849529</v>
+        <v>17.05956348215845</v>
       </c>
       <c r="E3" t="n">
         <v>17.05956348215845</v>
@@ -4434,25 +4434,25 @@
         <v>852.9781741079227</v>
       </c>
       <c r="S3" t="n">
-        <v>852.9781741079227</v>
+        <v>702.5885737738873</v>
       </c>
       <c r="T3" t="n">
-        <v>655.7886271488273</v>
+        <v>505.399026814792</v>
       </c>
       <c r="U3" t="n">
-        <v>655.7886271488273</v>
+        <v>290.00049799966</v>
       </c>
       <c r="V3" t="n">
-        <v>440.3900983336953</v>
+        <v>290.00049799966</v>
       </c>
       <c r="W3" t="n">
-        <v>224.9915695185633</v>
+        <v>74.60196918452795</v>
       </c>
       <c r="X3" t="n">
-        <v>224.9915695185633</v>
+        <v>17.05956348215845</v>
       </c>
       <c r="Y3" t="n">
-        <v>224.9915695185633</v>
+        <v>17.05956348215845</v>
       </c>
     </row>
     <row r="4">
@@ -4525,7 +4525,7 @@
         <v>74.43183422079989</v>
       </c>
       <c r="W4" t="n">
-        <v>74.43183422079989</v>
+        <v>17.05956348215845</v>
       </c>
       <c r="X4" t="n">
         <v>17.05956348215845</v>
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.00642392276843</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276843</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276843</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276843</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356496</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946894</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>646.8597007358183</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="V5" t="n">
-        <v>380.4820441686402</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="W5" t="n">
-        <v>380.4820441686402</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="X5" t="n">
-        <v>307.3840804899465</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.3840804899465</v>
+        <v>320.3587892151035</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.0971104001205</v>
+        <v>122.1852469211215</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0971104001205</v>
+        <v>122.1852469211215</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>858.0464416374626</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="U6" t="n">
-        <v>629.9105956742761</v>
+        <v>611.5747118810658</v>
       </c>
       <c r="V6" t="n">
-        <v>436.7089093706072</v>
+        <v>376.4226036493231</v>
       </c>
       <c r="W6" t="n">
-        <v>436.7089093706072</v>
+        <v>122.1852469211215</v>
       </c>
       <c r="X6" t="n">
-        <v>228.8574091650744</v>
+        <v>122.1852469211215</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.0971104001205</v>
+        <v>122.1852469211215</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>943.0439315983347</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>736.256897008846</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T7" t="n">
-        <v>736.256897008846</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="U7" t="n">
-        <v>469.8792404416679</v>
+        <v>356.2217926073722</v>
       </c>
       <c r="V7" t="n">
-        <v>469.8792404416679</v>
+        <v>101.5373044014853</v>
       </c>
       <c r="W7" t="n">
-        <v>469.8792404416679</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X7" t="n">
-        <v>241.8896895436506</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1218.33687655787</v>
+        <v>1328.442777869358</v>
       </c>
       <c r="C8" t="n">
-        <v>849.3743596174584</v>
+        <v>1328.442777869358</v>
       </c>
       <c r="D8" t="n">
-        <v>849.3743596174584</v>
+        <v>970.1770792626078</v>
       </c>
       <c r="E8" t="n">
-        <v>849.3743596174584</v>
+        <v>970.1770792626078</v>
       </c>
       <c r="F8" t="n">
-        <v>842.4288588682549</v>
+        <v>842.428858868255</v>
       </c>
       <c r="G8" t="n">
-        <v>426.5274500911178</v>
+        <v>426.5274500911179</v>
       </c>
       <c r="H8" t="n">
-        <v>120.4542772109597</v>
+        <v>120.4542772109598</v>
       </c>
       <c r="I8" t="n">
-        <v>46.49895117062451</v>
+        <v>46.49895117062437</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4213561287627</v>
+        <v>166.4213561287621</v>
       </c>
       <c r="K8" t="n">
-        <v>396.8924727304592</v>
+        <v>396.8924727304578</v>
       </c>
       <c r="L8" t="n">
-        <v>719.7140343829969</v>
+        <v>719.7140343829947</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.584660221321</v>
+        <v>1110.584660221317</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.393789807199</v>
+        <v>1512.393789807195</v>
       </c>
       <c r="O8" t="n">
-        <v>1878.475495662227</v>
+        <v>1878.475495662222</v>
       </c>
       <c r="P8" t="n">
-        <v>2156.416761150937</v>
+        <v>2156.416761150932</v>
       </c>
       <c r="Q8" t="n">
-        <v>2316.966329788273</v>
+        <v>2316.966329788266</v>
       </c>
       <c r="R8" t="n">
-        <v>2324.947558531225</v>
+        <v>2324.947558531218</v>
       </c>
       <c r="S8" t="n">
-        <v>2195.766995456452</v>
+        <v>2324.947558531218</v>
       </c>
       <c r="T8" t="n">
-        <v>2193.135889293187</v>
+        <v>2324.947558531218</v>
       </c>
       <c r="U8" t="n">
-        <v>1939.539095877252</v>
+        <v>2071.350765115284</v>
       </c>
       <c r="V8" t="n">
-        <v>1608.476208533682</v>
+        <v>2071.350765115284</v>
       </c>
       <c r="W8" t="n">
-        <v>1608.476208533682</v>
+        <v>1718.58210984517</v>
       </c>
       <c r="X8" t="n">
-        <v>1608.476208533682</v>
+        <v>1718.58210984517</v>
       </c>
       <c r="Y8" t="n">
-        <v>1218.33687655787</v>
+        <v>1328.442777869358</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>691.5268873718089</v>
+        <v>691.5268873718021</v>
       </c>
       <c r="C9" t="n">
-        <v>517.0738580906819</v>
+        <v>517.0738580906751</v>
       </c>
       <c r="D9" t="n">
-        <v>517.0738580906819</v>
+        <v>368.1394484294239</v>
       </c>
       <c r="E9" t="n">
-        <v>448.675612571439</v>
+        <v>208.9019934239683</v>
       </c>
       <c r="F9" t="n">
-        <v>302.141054598324</v>
+        <v>62.36743545085332</v>
       </c>
       <c r="G9" t="n">
-        <v>165.3344224662788</v>
+        <v>46.49895117062437</v>
       </c>
       <c r="H9" t="n">
-        <v>70.54894307700387</v>
+        <v>46.49895117062437</v>
       </c>
       <c r="I9" t="n">
-        <v>46.49895117062451</v>
+        <v>46.49895117062437</v>
       </c>
       <c r="J9" t="n">
-        <v>99.10606705597885</v>
+        <v>99.10606705597843</v>
       </c>
       <c r="K9" t="n">
-        <v>267.1748319671107</v>
+        <v>267.1748319671098</v>
       </c>
       <c r="L9" t="n">
-        <v>539.4865685191083</v>
+        <v>539.4865685191068</v>
       </c>
       <c r="M9" t="n">
-        <v>876.6183891327225</v>
+        <v>876.6183891327203</v>
       </c>
       <c r="N9" t="n">
-        <v>1237.081730786686</v>
+        <v>1237.081730786682</v>
       </c>
       <c r="O9" t="n">
-        <v>1544.615470971432</v>
+        <v>1544.615470971428</v>
       </c>
       <c r="P9" t="n">
-        <v>1996.884196384027</v>
+        <v>1996.884196384021</v>
       </c>
       <c r="Q9" t="n">
-        <v>2307.012470340881</v>
+        <v>2307.012470340874</v>
       </c>
       <c r="R9" t="n">
-        <v>2324.947558531225</v>
+        <v>2324.947558531218</v>
       </c>
       <c r="S9" t="n">
-        <v>2187.271260312649</v>
+        <v>2187.271260312642</v>
       </c>
       <c r="T9" t="n">
-        <v>1992.84051492241</v>
+        <v>1992.840514922403</v>
       </c>
       <c r="U9" t="n">
-        <v>1764.743488322308</v>
+        <v>1764.743488322301</v>
       </c>
       <c r="V9" t="n">
-        <v>1529.591380090565</v>
+        <v>1529.591380090558</v>
       </c>
       <c r="W9" t="n">
-        <v>1275.354023362364</v>
+        <v>1275.354023362357</v>
       </c>
       <c r="X9" t="n">
-        <v>1067.502523156831</v>
+        <v>1067.502523156824</v>
       </c>
       <c r="Y9" t="n">
-        <v>859.742224391877</v>
+        <v>859.7422243918702</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.49895117062451</v>
+        <v>46.49895117062437</v>
       </c>
       <c r="C10" t="n">
-        <v>46.49895117062451</v>
+        <v>46.49895117062437</v>
       </c>
       <c r="D10" t="n">
-        <v>46.49895117062451</v>
+        <v>46.49895117062437</v>
       </c>
       <c r="E10" t="n">
-        <v>46.49895117062451</v>
+        <v>46.49895117062437</v>
       </c>
       <c r="F10" t="n">
-        <v>46.49895117062451</v>
+        <v>46.49895117062437</v>
       </c>
       <c r="G10" t="n">
-        <v>46.49895117062451</v>
+        <v>46.49895117062437</v>
       </c>
       <c r="H10" t="n">
-        <v>46.49895117062451</v>
+        <v>46.49895117062437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.49895117062451</v>
+        <v>46.49895117062437</v>
       </c>
       <c r="J10" t="n">
-        <v>65.85548909682394</v>
+        <v>65.85548909682362</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5010637166521</v>
+        <v>227.5010637166515</v>
       </c>
       <c r="L10" t="n">
-        <v>489.8781812094946</v>
+        <v>489.8781812094936</v>
       </c>
       <c r="M10" t="n">
-        <v>776.9071867137558</v>
+        <v>776.9071867137545</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.545900430351</v>
+        <v>1062.545900430349</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.363188998648</v>
+        <v>1310.363188998646</v>
       </c>
       <c r="P10" t="n">
-        <v>1498.89300889947</v>
+        <v>1498.893008899468</v>
       </c>
       <c r="Q10" t="n">
-        <v>1545.986203775079</v>
+        <v>1545.986203775076</v>
       </c>
       <c r="R10" t="n">
-        <v>1439.436364572167</v>
+        <v>1545.986203775076</v>
       </c>
       <c r="S10" t="n">
-        <v>1250.835710529689</v>
+        <v>1347.8201224288</v>
       </c>
       <c r="T10" t="n">
-        <v>1027.480314362982</v>
+        <v>1347.8201224288</v>
       </c>
       <c r="U10" t="n">
-        <v>738.357165181355</v>
+        <v>1058.696973247173</v>
       </c>
       <c r="V10" t="n">
-        <v>738.357165181355</v>
+        <v>804.0124850412861</v>
       </c>
       <c r="W10" t="n">
-        <v>448.9399951443943</v>
+        <v>514.5953150043256</v>
       </c>
       <c r="X10" t="n">
-        <v>448.9399951443943</v>
+        <v>286.6057641063082</v>
       </c>
       <c r="Y10" t="n">
-        <v>228.1474160008642</v>
+        <v>228.1474160008641</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,22 +5349,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,22 +5540,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5601,7 +5601,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2386.690454827884</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2386.690454827884</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2167.088989850826</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1878.013763195024</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1623.329274989137</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5738,37 +5738,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111696</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5835,10 +5835,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998291</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998291</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998291</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6029,7 +6029,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,10 +6072,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319316</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150014</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942646</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580104</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345465</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3734194384008</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L25" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6169,28 +6169,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T25" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y25" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6218,19 +6218,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6245,28 +6245,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,19 +6297,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
         <v>680.0291294438176</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F28" t="n">
         <v>411.2214559580113</v>
@@ -6376,10 +6376,10 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
@@ -6388,7 +6388,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,10 +6406,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
         <v>656.9646031150023</v>
@@ -6622,7 +6622,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311323</v>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,10 +6692,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6707,10 +6707,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,19 +6771,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438176</v>
@@ -6844,7 +6844,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7023,7 +7023,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345477</v>
@@ -7108,19 +7108,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,19 +7245,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
         <v>680.0291294438176</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
@@ -7327,7 +7327,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7591,16 +7591,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,10 +7609,10 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7628,10 +7628,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7688,7 +7688,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7734,7 +7734,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127268</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>227.0493459637893</v>
+        <v>227.0493459637879</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>329.3793278846179</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>330.3496132650225</v>
+        <v>381.360761764902</v>
       </c>
       <c r="H2" t="n">
         <v>315.9823191592251</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>156.4865571514884</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22632,7 +22632,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>118.3255781292275</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22717,10 +22717,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9620113031242</v>
       </c>
       <c r="H4" t="n">
-        <v>153.0787110700107</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.0844911090059</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>10.30454602850781</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>73.01836029921927</v>
       </c>
       <c r="V4" t="n">
         <v>38.89309979684734</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>229.724450305336</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393022</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>40.32043864788525</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.70534424526943</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393024</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>92.12028678808279</v>
       </c>
     </row>
     <row r="23">
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.314504061156185e-12</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -26366,13 +26366,13 @@
         <v>621309.9391332068</v>
       </c>
       <c r="C3" t="n">
-        <v>55866.68210941418</v>
+        <v>55866.68210941403</v>
       </c>
       <c r="D3" t="n">
-        <v>331217.3128155256</v>
+        <v>331217.312815524</v>
       </c>
       <c r="E3" t="n">
-        <v>564113.9289335998</v>
+        <v>564113.9289336014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="J3" t="n">
-        <v>55794.15534657328</v>
+        <v>55794.15534657331</v>
       </c>
       <c r="K3" t="n">
-        <v>12989.19218977576</v>
+        <v>12989.19218977569</v>
       </c>
       <c r="L3" t="n">
-        <v>80362.21603059536</v>
+        <v>80362.21603059491</v>
       </c>
       <c r="M3" t="n">
-        <v>147397.038383531</v>
+        <v>147397.0383835313</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>163039.5193341778</v>
       </c>
       <c r="C4" t="n">
-        <v>253911.4645514928</v>
+        <v>253911.4645514929</v>
       </c>
       <c r="D4" t="n">
-        <v>160648.022309884</v>
+        <v>160648.0223098845</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>20987.72340992388</v>
+        <v>20987.72340992391</v>
       </c>
       <c r="J4" t="n">
+        <v>20987.72340992391</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20987.7234099239</v>
+      </c>
+      <c r="L4" t="n">
         <v>20987.72340992396</v>
-      </c>
-      <c r="K4" t="n">
-        <v>20987.72340992391</v>
-      </c>
-      <c r="L4" t="n">
-        <v>20987.7234099239</v>
       </c>
       <c r="M4" t="n">
         <v>20987.7234099239</v>
       </c>
       <c r="N4" t="n">
-        <v>20987.72340992395</v>
+        <v>20987.7234099239</v>
       </c>
       <c r="O4" t="n">
         <v>20987.72340992391</v>
       </c>
       <c r="P4" t="n">
-        <v>20987.7234099239</v>
+        <v>20987.72340992391</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>59032.15660993007</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>88273.65194811553</v>
+        <v>88273.6519481154</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-843381.6150773147</v>
+        <v>-843845.9118693393</v>
       </c>
       <c r="C6" t="n">
-        <v>-372825.9498651732</v>
+        <v>-372825.9498651731</v>
       </c>
       <c r="D6" t="n">
-        <v>-580138.9870735252</v>
+        <v>-580138.9870735239</v>
       </c>
       <c r="E6" t="n">
-        <v>-678233.3229043374</v>
+        <v>-678268.0608297745</v>
       </c>
       <c r="F6" t="n">
-        <v>-114119.3939707375</v>
+        <v>-114154.1318961732</v>
       </c>
       <c r="G6" t="n">
-        <v>-114119.3939707375</v>
+        <v>-114154.1318961732</v>
       </c>
       <c r="H6" t="n">
-        <v>-114119.3939707376</v>
+        <v>-114154.1318961732</v>
       </c>
       <c r="I6" t="n">
         <v>-143579.5572574711</v>
@@ -26546,13 +26546,13 @@
         <v>-179945.9946104126</v>
       </c>
       <c r="K6" t="n">
-        <v>-137141.0314536151</v>
+        <v>-137141.031453615</v>
       </c>
       <c r="L6" t="n">
-        <v>-204514.0552944347</v>
+        <v>-204514.0552944342</v>
       </c>
       <c r="M6" t="n">
-        <v>-271548.8776473703</v>
+        <v>-271548.8776473706</v>
       </c>
       <c r="N6" t="n">
         <v>-143579.5572574711</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="K2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203973</v>
-      </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>570.609557958241</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>885.6352779101334</v>
+        <v>885.6352779101319</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,16 +26790,16 @@
         <v>213.2445435269807</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>581.2368896328063</v>
+        <v>581.2368896328046</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>570.609557958241</v>
       </c>
       <c r="C3" t="n">
-        <v>43.44545581123737</v>
+        <v>43.44545581123725</v>
       </c>
       <c r="D3" t="n">
-        <v>271.580264140655</v>
+        <v>271.5802641406536</v>
       </c>
       <c r="E3" t="n">
-        <v>482.3402224315406</v>
+        <v>482.3402224315419</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>213.2445435269807</v>
       </c>
       <c r="C4" t="n">
-        <v>50.46933647452559</v>
+        <v>50.46933647452548</v>
       </c>
       <c r="D4" t="n">
-        <v>317.5230096313001</v>
+        <v>317.5230096312985</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4713984668423</v>
+        <v>591.4713984668438</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>213.2445435269805</v>
+        <v>213.2445435269806</v>
       </c>
       <c r="K4" t="n">
-        <v>50.46933647452582</v>
+        <v>50.46933647452556</v>
       </c>
       <c r="L4" t="n">
-        <v>317.5230096313001</v>
+        <v>317.5230096312982</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4713984668423</v>
+        <v>591.4713984668438</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>213.2445435269807</v>
       </c>
       <c r="K4" t="n">
-        <v>50.46933647452559</v>
+        <v>50.46933647452548</v>
       </c>
       <c r="L4" t="n">
-        <v>317.5230096313001</v>
+        <v>317.5230096312985</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4713984668423</v>
+        <v>591.4713984668438</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>82.65921647942611</v>
+        <v>31.64806797954668</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>90.77158733515421</v>
+        <v>122.0400102410186</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5.774433940770336</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.0542682979517</v>
       </c>
       <c r="U2" t="n">
         <v>251.1621402861816</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27506,22 +27506,22 @@
         <v>23.95454262003122</v>
       </c>
       <c r="S3" t="n">
-        <v>148.8857043306949</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8606354454147</v>
+        <v>12.61609191843402</v>
       </c>
       <c r="V3" t="n">
-        <v>19.55604362244461</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>38.45043963393894</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>148.8060035581317</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9620113031242</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.0787110700107</v>
       </c>
       <c r="I4" t="n">
         <v>124.5065992268343</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.0844911090059</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>10.30454602850781</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>73.01836029921927</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>168.9111073577821</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619743</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>356.2512337886462</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862865</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>297.3641166365622</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>47.3678104088478</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27752,16 +27752,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>41.53091770879305</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>16.81113036005048</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117124</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>206.8872062752398</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>280.4053075513022</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>127.8887574440257</v>
       </c>
       <c r="T8" t="n">
-        <v>204.9056537426935</v>
+        <v>207.5104488443259</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27935,22 +27935,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>89.93081739135049</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>119.728766373298</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>93.83762459538221</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>23.80949198731568</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>148.0279708386509</v>
       </c>
       <c r="I10" t="n">
-        <v>107.4229093645251</v>
+        <v>107.4229093645252</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>105.4843408108824</v>
       </c>
       <c r="S10" t="n">
-        <v>9.46977303075937</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.1218422050395</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>160.7108887277051</v>
       </c>
     </row>
     <row r="11">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="26">
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.560342825769378</v>
+        <v>3.560342825769372</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46236096441065</v>
+        <v>36.46236096441059</v>
       </c>
       <c r="I8" t="n">
-        <v>137.2601167904741</v>
+        <v>137.2601167904738</v>
       </c>
       <c r="J8" t="n">
-        <v>302.179646908644</v>
+        <v>302.1796469086435</v>
       </c>
       <c r="K8" t="n">
-        <v>452.8889587234618</v>
+        <v>452.8889587234611</v>
       </c>
       <c r="L8" t="n">
-        <v>561.8488004776016</v>
+        <v>561.8488004776007</v>
       </c>
       <c r="M8" t="n">
-        <v>625.1650472053777</v>
+        <v>625.1650472053766</v>
       </c>
       <c r="N8" t="n">
-        <v>635.280871259095</v>
+        <v>635.2808712590939</v>
       </c>
       <c r="O8" t="n">
-        <v>599.8777122853508</v>
+        <v>599.8777122853497</v>
       </c>
       <c r="P8" t="n">
-        <v>511.9817487741691</v>
+        <v>511.9817487741682</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.4769713263032</v>
+        <v>384.4769713263025</v>
       </c>
       <c r="R8" t="n">
-        <v>223.6473850292359</v>
+        <v>223.6473850292355</v>
       </c>
       <c r="S8" t="n">
-        <v>81.13131214221977</v>
+        <v>81.13131214221964</v>
       </c>
       <c r="T8" t="n">
-        <v>15.58540071980546</v>
+        <v>15.58540071980543</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2848274260615501</v>
+        <v>0.2848274260615497</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.904951352485947</v>
+        <v>1.904951352485944</v>
       </c>
       <c r="H9" t="n">
-        <v>18.39781964111428</v>
+        <v>18.39781964111425</v>
       </c>
       <c r="I9" t="n">
-        <v>65.58714086409951</v>
+        <v>65.5871408640994</v>
       </c>
       <c r="J9" t="n">
-        <v>179.976127560964</v>
+        <v>179.9761275609637</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6078681775225</v>
+        <v>307.607868177522</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6167399334071</v>
+        <v>413.6167399334064</v>
       </c>
       <c r="M9" t="n">
-        <v>482.6712264610226</v>
+        <v>482.6712264610218</v>
       </c>
       <c r="N9" t="n">
-        <v>495.4460975923868</v>
+        <v>495.446097592386</v>
       </c>
       <c r="O9" t="n">
-        <v>453.2363860451982</v>
+        <v>453.2363860451974</v>
       </c>
       <c r="P9" t="n">
-        <v>363.7621578268999</v>
+        <v>363.7621578268993</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.1653691348729</v>
+        <v>243.1653691348725</v>
       </c>
       <c r="R9" t="n">
-        <v>118.2740848499609</v>
+        <v>118.2740848499607</v>
       </c>
       <c r="S9" t="n">
-        <v>35.38363586744729</v>
+        <v>35.38363586744723</v>
       </c>
       <c r="T9" t="n">
-        <v>7.678290758485021</v>
+        <v>7.678290758485009</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253257468740755</v>
+        <v>0.1253257468740753</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597047222460896</v>
+        <v>1.597047222460893</v>
       </c>
       <c r="H10" t="n">
-        <v>14.1992016687887</v>
+        <v>14.19920166878868</v>
       </c>
       <c r="I10" t="n">
-        <v>48.02756556273314</v>
+        <v>48.02756556273307</v>
       </c>
       <c r="J10" t="n">
-        <v>112.9112386279853</v>
+        <v>112.9112386279852</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5478500277295</v>
+        <v>185.5478500277292</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4373661465955</v>
+        <v>237.4373661465951</v>
       </c>
       <c r="M10" t="n">
-        <v>250.3444114263021</v>
+        <v>250.3444114263017</v>
       </c>
       <c r="N10" t="n">
-        <v>244.3917808698571</v>
+        <v>244.3917808698567</v>
       </c>
       <c r="O10" t="n">
-        <v>225.7353655892911</v>
+        <v>225.7353655892907</v>
       </c>
       <c r="P10" t="n">
-        <v>193.1556022510887</v>
+        <v>193.1556022510883</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7309269644301</v>
+        <v>133.7309269644299</v>
       </c>
       <c r="R10" t="n">
-        <v>71.80905056628718</v>
+        <v>71.80905056628706</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83217750415943</v>
+        <v>27.83217750415938</v>
       </c>
       <c r="T10" t="n">
-        <v>6.823747223242009</v>
+        <v>6.823747223241997</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08711166667968534</v>
+        <v>0.0871116666796852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31847,31 +31847,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622658</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32084,31 +32084,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622658</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32321,31 +32321,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948329</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,13 +32792,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33029,10 +33029,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33743,10 +33743,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34454,10 +34454,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877691</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1337423819577</v>
+        <v>121.1337423819572</v>
       </c>
       <c r="K8" t="n">
-        <v>232.7991076784813</v>
+        <v>232.7991076784805</v>
       </c>
       <c r="L8" t="n">
-        <v>326.0823855076143</v>
+        <v>326.0823855076134</v>
       </c>
       <c r="M8" t="n">
-        <v>394.818813978105</v>
+        <v>394.8188139781039</v>
       </c>
       <c r="N8" t="n">
-        <v>405.867807662504</v>
+        <v>405.867807662503</v>
       </c>
       <c r="O8" t="n">
-        <v>369.779500863664</v>
+        <v>369.779500863663</v>
       </c>
       <c r="P8" t="n">
-        <v>280.7487530188995</v>
+        <v>280.7487530188987</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.1712814518537</v>
+        <v>162.171281451853</v>
       </c>
       <c r="R8" t="n">
-        <v>8.061847215103739</v>
+        <v>8.06184721510337</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.13850089429732</v>
+        <v>53.13850089429704</v>
       </c>
       <c r="K9" t="n">
-        <v>169.7664292031635</v>
+        <v>169.766429203163</v>
       </c>
       <c r="L9" t="n">
-        <v>275.0623601535329</v>
+        <v>275.0623601535323</v>
       </c>
       <c r="M9" t="n">
-        <v>340.5371925390043</v>
+        <v>340.5371925390035</v>
       </c>
       <c r="N9" t="n">
-        <v>364.1043855090535</v>
+        <v>364.1043855090527</v>
       </c>
       <c r="O9" t="n">
-        <v>310.6401416007537</v>
+        <v>310.6401416007529</v>
       </c>
       <c r="P9" t="n">
-        <v>456.8370963763589</v>
+        <v>456.8370963763569</v>
       </c>
       <c r="Q9" t="n">
-        <v>313.2608827847005</v>
+        <v>313.2608827847</v>
       </c>
       <c r="R9" t="n">
-        <v>18.11625069731774</v>
+        <v>18.11625069731755</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.55205851131257</v>
+        <v>19.55205851131238</v>
       </c>
       <c r="K10" t="n">
-        <v>163.2783582018467</v>
+        <v>163.2783582018463</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0273914069116</v>
+        <v>265.0273914069112</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9282883881426</v>
+        <v>289.9282883881423</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5239532490857</v>
+        <v>288.5239532490853</v>
       </c>
       <c r="O10" t="n">
-        <v>250.3204935033308</v>
+        <v>250.3204935033304</v>
       </c>
       <c r="P10" t="n">
-        <v>190.4341615159821</v>
+        <v>190.4341615159818</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.56888371273574</v>
+        <v>47.56888371273551</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,22 +35495,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402476</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402476</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281453</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M25" t="n">
         <v>450.5570744930848</v>
       </c>
       <c r="N25" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
         <v>397.5465471980851</v>
       </c>
       <c r="P25" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -38102,10 +38102,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
